--- a/Python/spec list pdf to xls/15_spec_list.xlsx
+++ b/Python/spec list pdf to xls/15_spec_list.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="15_spec_list" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="15_spec_list" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="518">
   <si>
     <t>Поз.</t>
   </si>
@@ -900,6 +900,9 @@
 </t>
   </si>
   <si>
+    <t>693,55</t>
+  </si>
+  <si>
     <t>Монтажный кабель, с ПВХ изоляцией, экранированный, AC 500В 400Гц, DC 750В, 8x2x0.5, негорючий, с низким дымо- и газовыделением</t>
   </si>
   <si>
@@ -1079,6 +1082,9 @@
     <t>1,80</t>
   </si>
   <si>
+    <t>245,26</t>
+  </si>
+  <si>
     <t>38</t>
   </si>
   <si>
@@ -1344,6 +1350,9 @@
   <si>
     <t xml:space="preserve">BPD4130HDZ
 </t>
+  </si>
+  <si>
+    <t>70</t>
   </si>
   <si>
     <t>15,12</t>
@@ -2741,7 +2750,9 @@
       <c r="F25" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G25" s="2" t="n"/>
+      <c r="G25" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="H25" s="2" t="s">
         <v>67</v>
       </c>
@@ -3283,7 +3294,9 @@
       <c r="F49" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G49" s="2" t="n"/>
+      <c r="G49" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="H49" s="2" t="s">
         <v>123</v>
       </c>
@@ -3753,7 +3766,9 @@
       <c r="F71" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="G71" s="2" t="n"/>
+      <c r="G71" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="H71" s="2" t="s">
         <v>180</v>
       </c>
@@ -4255,7 +4270,9 @@
       <c r="F95" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G95" s="2" t="n"/>
+      <c r="G95" s="2" t="s">
+        <v>240</v>
+      </c>
       <c r="H95" s="2" t="s"/>
       <c r="I95" s="2" t="n"/>
     </row>
@@ -4299,10 +4316,10 @@
         <v>214</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D99" s="2" t="s"/>
       <c r="E99" s="2" t="s">
@@ -4312,7 +4329,7 @@
         <v>13</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H99" s="2" t="s"/>
       <c r="I99" s="2" t="n"/>
@@ -4322,10 +4339,10 @@
         <v>214</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D100" s="2" t="s"/>
       <c r="E100" s="2" t="s">
@@ -4335,7 +4352,7 @@
         <v>13</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H100" s="2" t="s"/>
       <c r="I100" s="2" t="n"/>
@@ -4345,10 +4362,10 @@
         <v>214</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D101" s="2" t="s"/>
       <c r="E101" s="2" t="s">
@@ -4358,7 +4375,7 @@
         <v>13</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H101" s="2" t="s"/>
       <c r="I101" s="2" t="n"/>
@@ -4368,10 +4385,10 @@
         <v>214</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D102" s="2" t="s"/>
       <c r="E102" s="2" t="s">
@@ -4381,7 +4398,7 @@
         <v>13</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H102" s="2" t="s"/>
       <c r="I102" s="2" t="n"/>
@@ -4391,10 +4408,10 @@
         <v>214</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D103" s="2" t="s"/>
       <c r="E103" s="2" t="s">
@@ -4414,10 +4431,10 @@
         <v>214</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D104" s="2" t="s"/>
       <c r="E104" s="2" t="s">
@@ -4427,7 +4444,7 @@
         <v>13</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H104" s="2" t="s"/>
       <c r="I104" s="2" t="n"/>
@@ -4446,7 +4463,7 @@
     <row r="106" spans="1:9">
       <c r="A106" s="2" t="n"/>
       <c r="B106" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C106" s="2" t="n"/>
       <c r="D106" s="2" t="n"/>
@@ -4472,10 +4489,10 @@
         <v>89</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D108" s="2" t="s"/>
       <c r="E108" s="2" t="s">
@@ -4485,7 +4502,7 @@
         <v>13</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H108" s="2" t="s"/>
       <c r="I108" s="2" t="n"/>
@@ -4504,7 +4521,7 @@
     <row r="110" spans="1:9">
       <c r="A110" s="2" t="n"/>
       <c r="B110" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C110" s="2" t="n"/>
       <c r="D110" s="2" t="n"/>
@@ -4527,13 +4544,13 @@
     </row>
     <row r="112" spans="1:9">
       <c r="A112" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D112" s="2" t="s"/>
       <c r="E112" s="2" t="s">
@@ -4543,22 +4560,22 @@
         <v>13</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I112" s="2" t="n"/>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D113" s="2" t="s"/>
       <c r="E113" s="2" t="s">
@@ -4568,10 +4585,10 @@
         <v>13</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I113" s="2" t="n"/>
     </row>
@@ -4593,7 +4610,7 @@
         <v>13</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H114" s="2" t="s">
         <v>27</v>
@@ -4602,38 +4619,38 @@
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D115" s="2" t="s"/>
       <c r="E115" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I115" s="2" t="n"/>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D116" s="2" t="s"/>
       <c r="E116" s="2" t="s">
@@ -4643,22 +4660,22 @@
         <v>156</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I116" s="2" t="n"/>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D117" s="2" t="s"/>
       <c r="E117" s="2" t="s">
@@ -4668,22 +4685,22 @@
         <v>156</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I117" s="2" t="n"/>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D118" s="2" t="s"/>
       <c r="E118" s="2" t="s">
@@ -4693,10 +4710,10 @@
         <v>156</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I118" s="2" t="n"/>
     </row>
@@ -4717,7 +4734,9 @@
       <c r="F119" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G119" s="2" t="n"/>
+      <c r="G119" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="H119" s="2" t="s">
         <v>31</v>
       </c>
@@ -4737,7 +4756,7 @@
     <row r="121" spans="1:9">
       <c r="A121" s="2" t="n"/>
       <c r="B121" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C121" s="2" t="n"/>
       <c r="D121" s="2" t="n"/>
@@ -4760,13 +4779,13 @@
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D123" s="2" t="s"/>
       <c r="E123" s="2" t="s">
@@ -4776,22 +4795,22 @@
         <v>156</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="I123" s="2" t="n"/>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D124" s="2" t="s"/>
       <c r="E124" s="2" t="s">
@@ -4804,19 +4823,19 @@
         <v>176</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="I124" s="2" t="n"/>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D125" s="2" t="s"/>
       <c r="E125" s="2" t="s">
@@ -4829,19 +4848,19 @@
         <v>38</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="I125" s="2" t="n"/>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D126" s="2" t="s"/>
       <c r="E126" s="2" t="s">
@@ -4854,19 +4873,19 @@
         <v>89</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="I126" s="2" t="n"/>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" s="2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D127" s="2" t="s"/>
       <c r="E127" s="2" t="s">
@@ -4876,20 +4895,20 @@
         <v>156</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="H127" s="2" t="s"/>
       <c r="I127" s="2" t="n"/>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" s="2" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D128" s="2" t="s"/>
       <c r="E128" s="2" t="s">
@@ -4899,22 +4918,22 @@
         <v>156</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="I128" s="2" t="n"/>
     </row>
     <row r="129" spans="1:9">
       <c r="A129" s="2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D129" s="2" t="s"/>
       <c r="E129" s="2" t="s">
@@ -4924,22 +4943,22 @@
         <v>156</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="I129" s="2" t="n"/>
     </row>
     <row r="130" spans="1:9">
       <c r="A130" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D130" s="2" t="s"/>
       <c r="E130" s="2" t="s">
@@ -4949,20 +4968,20 @@
         <v>156</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H130" s="2" t="s"/>
       <c r="I130" s="2" t="n"/>
     </row>
     <row r="131" spans="1:9">
       <c r="A131" s="2" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D131" s="2" t="s"/>
       <c r="E131" s="2" t="s">
@@ -4972,22 +4991,22 @@
         <v>156</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="I131" s="2" t="n"/>
     </row>
     <row r="132" spans="1:9">
       <c r="A132" s="2" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D132" s="2" t="s"/>
       <c r="E132" s="2" t="s">
@@ -4997,22 +5016,22 @@
         <v>156</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="I132" s="2" t="n"/>
     </row>
     <row r="133" spans="1:9">
       <c r="A133" s="2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D133" s="2" t="s"/>
       <c r="E133" s="2" t="s">
@@ -5022,22 +5041,22 @@
         <v>156</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I133" s="2" t="n"/>
     </row>
     <row r="134" spans="1:9">
       <c r="A134" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D134" s="2" t="s"/>
       <c r="E134" s="2" t="s">
@@ -5047,22 +5066,22 @@
         <v>156</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="I134" s="2" t="n"/>
     </row>
     <row r="135" spans="1:9">
       <c r="A135" s="2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D135" s="2" t="s"/>
       <c r="E135" s="2" t="s">
@@ -5075,19 +5094,19 @@
         <v>176</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="I135" s="2" t="n"/>
     </row>
     <row r="136" spans="1:9">
       <c r="A136" s="2" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D136" s="2" t="s"/>
       <c r="E136" s="2" t="s">
@@ -5100,19 +5119,19 @@
         <v>38</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I136" s="2" t="n"/>
     </row>
     <row r="137" spans="1:9">
       <c r="A137" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D137" s="2" t="s"/>
       <c r="E137" s="2" t="s">
@@ -5125,19 +5144,19 @@
         <v>89</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="I137" s="2" t="n"/>
     </row>
     <row r="138" spans="1:9">
       <c r="A138" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D138" s="2" t="s"/>
       <c r="E138" s="2" t="s">
@@ -5147,43 +5166,43 @@
         <v>156</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H138" s="2" t="s"/>
       <c r="I138" s="2" t="n"/>
     </row>
     <row r="139" spans="1:9">
       <c r="A139" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D139" s="2" t="s"/>
       <c r="E139" s="2" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="H139" s="2" t="s"/>
       <c r="I139" s="2" t="n"/>
     </row>
     <row r="140" spans="1:9">
       <c r="A140" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D140" s="2" t="s"/>
       <c r="E140" s="2" t="s">
@@ -5193,22 +5212,22 @@
         <v>156</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="I140" s="2" t="n"/>
     </row>
     <row r="141" spans="1:9">
       <c r="A141" s="2" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D141" s="2" t="s"/>
       <c r="E141" s="2" t="s">
@@ -5218,22 +5237,22 @@
         <v>156</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="I141" s="2" t="n"/>
     </row>
     <row r="142" spans="1:9">
       <c r="A142" s="2" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D142" s="2" t="s"/>
       <c r="E142" s="2" t="s">
@@ -5243,22 +5262,22 @@
         <v>156</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="I142" s="2" t="n"/>
     </row>
     <row r="143" spans="1:9">
       <c r="A143" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D143" s="2" t="s"/>
       <c r="E143" s="2" t="s">
@@ -5267,9 +5286,11 @@
       <c r="F143" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="G143" s="2" t="n"/>
+      <c r="G143" s="2" t="s">
+        <v>377</v>
+      </c>
       <c r="H143" s="2" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="I143" s="2" t="n"/>
     </row>
@@ -5287,7 +5308,7 @@
     <row r="145" spans="1:9">
       <c r="A145" s="2" t="n"/>
       <c r="B145" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C145" s="2" t="n"/>
       <c r="D145" s="2" t="n"/>
@@ -5310,13 +5331,13 @@
     </row>
     <row r="147" spans="1:9">
       <c r="A147" s="2" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="D147" s="2" t="s"/>
       <c r="E147" s="2" t="s">
@@ -5326,22 +5347,22 @@
         <v>156</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="I147" s="2" t="n"/>
     </row>
     <row r="148" spans="1:9">
       <c r="A148" s="2" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="D148" s="2" t="s"/>
       <c r="E148" s="2" t="s">
@@ -5354,19 +5375,19 @@
         <v>22</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="I148" s="2" t="n"/>
     </row>
     <row r="149" spans="1:9">
       <c r="A149" s="2" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="D149" s="2" t="s"/>
       <c r="E149" s="2" t="s">
@@ -5376,22 +5397,22 @@
         <v>156</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="I149" s="2" t="n"/>
     </row>
     <row r="150" spans="1:9">
       <c r="A150" s="2" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="D150" s="2" t="s"/>
       <c r="E150" s="2" t="s">
@@ -5401,22 +5422,22 @@
         <v>156</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="I150" s="2" t="n"/>
     </row>
     <row r="151" spans="1:9">
       <c r="A151" s="2" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D151" s="2" t="s"/>
       <c r="E151" s="2" t="s">
@@ -5426,22 +5447,22 @@
         <v>156</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="I151" s="2" t="n"/>
     </row>
     <row r="152" spans="1:9">
       <c r="A152" s="2" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="D152" s="2" t="s"/>
       <c r="E152" s="2" t="s">
@@ -5451,20 +5472,20 @@
         <v>156</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="H152" s="2" t="s"/>
       <c r="I152" s="2" t="n"/>
     </row>
     <row r="153" spans="1:9">
       <c r="A153" s="2" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="D153" s="2" t="s"/>
       <c r="E153" s="2" t="s">
@@ -5474,20 +5495,20 @@
         <v>156</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="H153" s="2" t="s"/>
       <c r="I153" s="2" t="n"/>
     </row>
     <row r="154" spans="1:9">
       <c r="A154" s="2" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="D154" s="2" t="s"/>
       <c r="E154" s="2" t="s">
@@ -5497,20 +5518,20 @@
         <v>156</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="H154" s="2" t="s"/>
       <c r="I154" s="2" t="n"/>
     </row>
     <row r="155" spans="1:9">
       <c r="A155" s="2" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="D155" s="2" t="s"/>
       <c r="E155" s="2" t="s">
@@ -5520,20 +5541,20 @@
         <v>156</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="H155" s="2" t="s"/>
       <c r="I155" s="2" t="n"/>
     </row>
     <row r="156" spans="1:9">
       <c r="A156" s="2" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="D156" s="2" t="s"/>
       <c r="E156" s="2" t="s">
@@ -5543,20 +5564,20 @@
         <v>156</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="H156" s="2" t="s"/>
       <c r="I156" s="2" t="n"/>
     </row>
     <row r="157" spans="1:9">
       <c r="A157" s="2" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="D157" s="2" t="s"/>
       <c r="E157" s="2" t="s">
@@ -5566,20 +5587,20 @@
         <v>156</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="H157" s="2" t="s"/>
       <c r="I157" s="2" t="n"/>
     </row>
     <row r="158" spans="1:9">
       <c r="A158" s="2" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="D158" s="2" t="s"/>
       <c r="E158" s="2" t="s">
@@ -5589,20 +5610,20 @@
         <v>156</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="H158" s="2" t="s"/>
       <c r="I158" s="2" t="n"/>
     </row>
     <row r="159" spans="1:9">
       <c r="A159" s="2" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="D159" s="2" t="s"/>
       <c r="E159" s="2" t="s">
@@ -5612,20 +5633,20 @@
         <v>156</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="H159" s="2" t="s"/>
       <c r="I159" s="2" t="n"/>
     </row>
     <row r="160" spans="1:9">
       <c r="A160" s="2" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="D160" s="2" t="s"/>
       <c r="E160" s="2" t="s">
@@ -5635,20 +5656,20 @@
         <v>156</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H160" s="2" t="s"/>
       <c r="I160" s="2" t="n"/>
     </row>
     <row r="161" spans="1:9">
       <c r="A161" s="2" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="D161" s="2" t="s"/>
       <c r="E161" s="2" t="s">
@@ -5658,20 +5679,20 @@
         <v>156</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="H161" s="2" t="s"/>
       <c r="I161" s="2" t="n"/>
     </row>
     <row r="162" spans="1:9">
       <c r="A162" s="2" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="D162" s="2" t="s"/>
       <c r="E162" s="2" t="s">
@@ -5681,20 +5702,20 @@
         <v>156</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="H162" s="2" t="s"/>
       <c r="I162" s="2" t="n"/>
     </row>
     <row r="163" spans="1:9">
       <c r="A163" s="2" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="D163" s="2" t="s"/>
       <c r="E163" s="2" t="s">
@@ -5704,20 +5725,20 @@
         <v>156</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="H163" s="2" t="s"/>
       <c r="I163" s="2" t="n"/>
     </row>
     <row r="164" spans="1:9">
       <c r="A164" s="2" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="D164" s="2" t="s"/>
       <c r="E164" s="2" t="s">
@@ -5727,20 +5748,20 @@
         <v>156</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="H164" s="2" t="s"/>
       <c r="I164" s="2" t="n"/>
     </row>
     <row r="165" spans="1:9">
       <c r="A165" s="2" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="D165" s="2" t="s"/>
       <c r="E165" s="2" t="s">
@@ -5750,20 +5771,20 @@
         <v>156</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="H165" s="2" t="s"/>
       <c r="I165" s="2" t="n"/>
     </row>
     <row r="166" spans="1:9">
       <c r="A166" s="2" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="D166" s="2" t="s"/>
       <c r="E166" s="2" t="s">
@@ -5773,20 +5794,20 @@
         <v>156</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="H166" s="2" t="s"/>
       <c r="I166" s="2" t="n"/>
     </row>
     <row r="167" spans="1:9">
       <c r="A167" s="2" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="D167" s="2" t="s"/>
       <c r="E167" s="2" t="s">
@@ -5795,9 +5816,11 @@
       <c r="F167" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="G167" s="2" t="n"/>
+      <c r="G167" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H167" s="2" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="I167" s="2" t="n"/>
     </row>
@@ -5815,7 +5838,7 @@
     <row r="169" spans="1:9">
       <c r="A169" s="2" t="n"/>
       <c r="B169" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C169" s="2" t="n"/>
       <c r="D169" s="2" t="n"/>
@@ -5838,13 +5861,13 @@
     </row>
     <row r="171" spans="1:9">
       <c r="A171" s="2" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="D171" s="2" t="s"/>
       <c r="E171" s="2" t="s">
@@ -5854,31 +5877,31 @@
         <v>156</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="H171" s="2" t="s"/>
       <c r="I171" s="2" t="n"/>
     </row>
     <row r="172" spans="1:9">
       <c r="A172" s="2" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B172" s="3" t="s"/>
       <c r="C172" s="2" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="D172" s="2" t="s"/>
       <c r="E172" s="2" t="s"/>
       <c r="F172" s="2" t="s"/>
       <c r="G172" s="2" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="H172" s="2" t="s"/>
       <c r="I172" s="2" t="n"/>
     </row>
     <row r="173" spans="1:9">
       <c r="A173" s="2" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>10</v>
@@ -5894,7 +5917,7 @@
         <v>13</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="H173" s="2" t="s">
         <v>15</v>
@@ -5903,13 +5926,13 @@
     </row>
     <row r="174" spans="1:9">
       <c r="A174" s="2" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="D174" s="2" t="s"/>
       <c r="E174" s="2" t="s">
@@ -5919,22 +5942,22 @@
         <v>13</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="H174" s="2" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="I174" s="2" t="n"/>
     </row>
     <row r="175" spans="1:9">
       <c r="A175" s="2" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="D175" s="2" t="s"/>
       <c r="E175" s="2" t="s">
@@ -5944,37 +5967,37 @@
         <v>156</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H175" s="2" t="s"/>
       <c r="I175" s="2" t="n"/>
     </row>
     <row r="176" spans="1:9">
       <c r="A176" s="2" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="D176" s="2" t="s"/>
       <c r="E176" s="2" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>156</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="H176" s="2" t="s"/>
       <c r="I176" s="2" t="n"/>
     </row>
     <row r="177" spans="1:9">
       <c r="A177" s="2" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>17</v>
@@ -5990,7 +6013,7 @@
         <v>13</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="H177" s="2" t="s">
         <v>21</v>
@@ -5999,13 +6022,13 @@
     </row>
     <row r="178" spans="1:9">
       <c r="A178" s="2" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="D178" s="2" t="s"/>
       <c r="E178" s="2" t="s">
@@ -6015,22 +6038,22 @@
         <v>13</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="H178" s="2" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="I178" s="2" t="n"/>
     </row>
     <row r="179" spans="1:9">
       <c r="A179" s="2" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="D179" s="2" t="s"/>
       <c r="E179" s="2" t="s">
@@ -6040,22 +6063,22 @@
         <v>13</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="H179" s="2" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="I179" s="2" t="n"/>
     </row>
     <row r="180" spans="1:9">
       <c r="A180" s="2" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="D180" s="2" t="s"/>
       <c r="E180" s="2" t="s">
@@ -6065,20 +6088,20 @@
         <v>156</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="H180" s="2" t="s"/>
       <c r="I180" s="2" t="n"/>
     </row>
     <row r="181" spans="1:9">
       <c r="A181" s="2" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="D181" s="2" t="s"/>
       <c r="E181" s="2" t="s">
@@ -6088,20 +6111,20 @@
         <v>156</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="H181" s="2" t="s"/>
       <c r="I181" s="2" t="n"/>
     </row>
     <row r="182" spans="1:9">
       <c r="A182" s="2" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="D182" s="2" t="s"/>
       <c r="E182" s="2" t="s">
@@ -6111,20 +6134,20 @@
         <v>156</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="H182" s="2" t="s"/>
       <c r="I182" s="2" t="n"/>
     </row>
     <row r="183" spans="1:9">
       <c r="A183" s="2" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="D183" s="2" t="s"/>
       <c r="E183" s="2" t="s">
@@ -6134,20 +6157,20 @@
         <v>37</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H183" s="2" t="s"/>
       <c r="I183" s="2" t="n"/>
     </row>
     <row r="184" spans="1:9">
       <c r="A184" s="2" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="D184" s="2" t="s"/>
       <c r="E184" s="2" t="s">
@@ -6157,20 +6180,20 @@
         <v>37</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H184" s="2" t="s"/>
       <c r="I184" s="2" t="n"/>
     </row>
     <row r="185" spans="1:9">
       <c r="A185" s="2" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="D185" s="2" t="s"/>
       <c r="E185" s="2" t="s">
@@ -6187,13 +6210,13 @@
     </row>
     <row r="186" spans="1:9">
       <c r="A186" s="2" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="D186" s="2" t="s"/>
       <c r="E186" s="2" t="s">
@@ -6203,20 +6226,20 @@
         <v>37</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="H186" s="2" t="s"/>
       <c r="I186" s="2" t="n"/>
     </row>
     <row r="187" spans="1:9">
       <c r="A187" s="2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="D187" s="2" t="s"/>
       <c r="E187" s="2" t="s">
@@ -6233,13 +6256,13 @@
     </row>
     <row r="188" spans="1:9">
       <c r="A188" s="2" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="D188" s="2" t="s"/>
       <c r="E188" s="2" t="s">
@@ -6248,7 +6271,9 @@
       <c r="F188" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G188" s="2" t="n"/>
+      <c r="G188" s="2" t="s">
+        <v>292</v>
+      </c>
       <c r="H188" s="2" t="s"/>
       <c r="I188" s="2" t="n"/>
     </row>
